--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value274.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value274.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6358458947989736</v>
+        <v>1.651777982711792</v>
       </c>
       <c r="B1">
-        <v>1.221667743188726</v>
+        <v>1.826148271560669</v>
       </c>
       <c r="C1">
-        <v>2.684270956876452</v>
+        <v>1.888054251670837</v>
       </c>
       <c r="D1">
-        <v>3.077992846275337</v>
+        <v>2.448972702026367</v>
       </c>
       <c r="E1">
-        <v>1.404663023882012</v>
+        <v>3.520786046981812</v>
       </c>
     </row>
   </sheetData>
